--- a/temp.xlsx
+++ b/temp.xlsx
@@ -40,7 +40,22 @@
   <authors>
     <author>AdonisGM</author>
   </authors>
-  <commentList/>
+  <commentList>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>merge_id:&lt;#NAME_GROUP&gt;</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
 </comments>
 </file>
 
@@ -203,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>totalGroup</t>
   </si>
@@ -265,28 +280,22 @@
     <t>A6</t>
   </si>
   <si>
-    <t>C7</t>
-  </si>
-  <si>
     <t>A7</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>End Group &lt;#NAME_GROUP&gt;</t>
   </si>
   <si>
     <t>End General: &lt;#GENERAL_NAME_REPORT&gt;</t>
   </si>
   <si>
-    <t>&lt;#NAME_GROUP&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#NAME_GROUP&gt;aaaaa</t>
-  </si>
-  <si>
-    <t/>
+    <t>Merge Cell</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D7</t>
   </si>
 </sst>
 </file>
@@ -470,6 +479,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -487,9 +499,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
@@ -866,16 +875,16 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="17" t="s">
-        <v>27</v>
+      <c r="A7" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
@@ -888,42 +897,27 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s" s="0">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s" s="0">
+      <c r="A8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s" s="0">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -936,7 +930,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
@@ -966,7 +960,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -974,7 +968,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -996,7 +990,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -1007,10 +1001,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1"/>
     </row>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -20,17 +20,6 @@
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -38,7 +27,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>AdonisGM</author>
+    <author>Nguyễn Mạnh Tùng</author>
   </authors>
   <commentList>
     <comment ref="A7" authorId="0" shapeId="0">
@@ -46,13 +35,63 @@
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>merge_id:&lt;#NAME_GROUP&gt;</t>
+          <t>merge_id:&lt;#merge.NAME_GROUP&gt;</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <t>merge_id:Group 1</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="0">
+      <text>
+        <t>merge_id:Group 1</t>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <t>merge_id:Group 1</t>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <t>merge_id:Group 1</t>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text>
+        <t>merge_id:Group 1</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <t>merge_id:Group 1</t>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0">
+      <text>
+        <t>merge_id:Group 2</t>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0">
+      <text>
+        <t>merge_id:Group 2</t>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0">
+      <text>
+        <t>merge_id:Group 2</t>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <t>merge_id:Group 2</t>
       </text>
     </comment>
   </commentList>
@@ -218,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>totalGroup</t>
   </si>
@@ -238,18 +277,6 @@
     <t>NAME_GROUP</t>
   </si>
   <si>
-    <t>&lt;#NAME&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#ROW_NUM&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#CODE&gt;</t>
-  </si>
-  <si>
-    <t>Group &lt;#NAME_GROUP&gt;</t>
-  </si>
-  <si>
     <t>isMergeCell</t>
   </si>
   <si>
@@ -283,9 +310,6 @@
     <t>A7</t>
   </si>
   <si>
-    <t>End Group &lt;#NAME_GROUP&gt;</t>
-  </si>
-  <si>
     <t>End General: &lt;#GENERAL_NAME_REPORT&gt;</t>
   </si>
   <si>
@@ -296,6 +320,84 @@
   </si>
   <si>
     <t>D7</t>
+  </si>
+  <si>
+    <t>&lt;#table.ROW_NUM&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#table.CODE&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#table.NAME&gt;</t>
+  </si>
+  <si>
+    <t>Group &lt;#table.NAME_GROUP&gt;</t>
+  </si>
+  <si>
+    <t>End Group &lt;#table.NAME_GROUP&gt;</t>
+  </si>
+  <si>
+    <t>Group Group 1</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>Nguyen Van A001</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>Nguyen Van A002</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>Nguyen Van A005</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>Nguyen Van A006</t>
+  </si>
+  <si>
+    <t>A007</t>
+  </si>
+  <si>
+    <t>Nguyen Van A007</t>
+  </si>
+  <si>
+    <t>A009</t>
+  </si>
+  <si>
+    <t>Nguyen Van A009</t>
+  </si>
+  <si>
+    <t>End Group Group 1</t>
+  </si>
+  <si>
+    <t>Group Group 2</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>Nguyen Van A003</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>Nguyen Van A004</t>
+  </si>
+  <si>
+    <t>A008</t>
+  </si>
+  <si>
+    <t>Nguyen Van A008</t>
   </si>
 </sst>
 </file>
@@ -365,10 +467,10 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -463,10 +565,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -476,28 +578,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -520,6 +622,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -839,88 +949,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="21.109375"/>
     <col min="2" max="3" customWidth="true" style="8" width="14.44140625"/>
-    <col min="4" max="4" customWidth="true" width="18.5546875"/>
+    <col min="4" max="4" customWidth="true" width="18.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15.95">
       <c r="A1" t="s" s="0">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.95">
+      <c r="A5" s="4"/>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.95">
       <c r="A6" s="12" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="15.95">
       <c r="A7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:4" ht="15.95">
       <c r="A8" s="15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s" s="0">
+    <row r="9" ht="15.95" customHeight="true">
+      <c r="A9" t="s" s="12">
+        <v>26</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" ht="15.95" customHeight="true">
+      <c r="A10" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B10" t="n" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="C10" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="15.95" customHeight="true">
+      <c r="A11" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="C11" t="s" s="10">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="15.95" customHeight="true">
+      <c r="A12" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B12" t="n" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="C12" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" ht="15.95" customHeight="true">
+      <c r="A13" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B13" t="n" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="C13" t="s" s="10">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="15.95" customHeight="true">
+      <c r="A14" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B14" t="n" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C14" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="15.95" customHeight="true">
+      <c r="A15" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B15" t="n" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="C15" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" ht="15.95" customHeight="true">
+      <c r="A16" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" ht="15.95" customHeight="true">
+      <c r="A17" t="s" s="12">
+        <v>40</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" ht="15.95" customHeight="true">
+      <c r="A18" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="C18" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" ht="15.95" customHeight="true">
+      <c r="A19" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="C19" t="s" s="10">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" ht="15.95" customHeight="true">
+      <c r="A20" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="C20" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="D20" t="s" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" ht="15.95" customHeight="true">
+      <c r="A21" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s" s="10">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s" s="0">
-        <v>14</v>
+      <c r="D21" t="s" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.95">
+      <c r="A24" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.95">
+      <c r="A26" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -933,18 +1211,18 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="17.21875"/>
-    <col min="2" max="3" style="2" width="11.5546875"/>
-    <col min="4" max="4" customWidth="true" style="2" width="16.21875"/>
-    <col min="5" max="5" style="2" width="11.5546875"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="17.109375"/>
+    <col min="2" max="3" style="2" width="11.44140625"/>
+    <col min="4" max="4" customWidth="true" style="2" width="16.109375"/>
+    <col min="5" max="5" style="2" width="11.44140625"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="10.109375"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="6.109375"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="14.109375"/>
     <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="12.77734375"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.44140625"/>
-    <col min="11" max="16384" style="2" width="11.5546875"/>
+    <col min="11" max="16384" style="2" width="11.44140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -957,7 +1235,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -965,7 +1243,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -979,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -987,10 +1265,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
@@ -1001,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="1"/>
     </row>
